--- a/Auto-Eval-ASI1-ICS-r1.xlsx
+++ b/Auto-Eval-ASI1-ICS-r1.xlsx
@@ -163,6 +163,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Avantages/Inconvénients Web Statique couplé aux Web Services</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve">Avantages/Inconvénients Web Dynamique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -882,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>14</v>
@@ -1174,22 +1174,22 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>14</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>14</v>
@@ -1229,10 +1229,10 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>14</v>
@@ -1243,8 +1243,8 @@
       <c r="G9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>14</v>
+      <c r="H9" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>14</v>
@@ -1284,10 +1284,10 @@
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>14</v>
@@ -1299,13 +1299,13 @@
         <v>14</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>20</v>
@@ -1342,7 +1342,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>14</v>
@@ -1354,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>14</v>
@@ -1366,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M11" s="20" t="s">
         <v>14</v>
@@ -1408,8 +1408,8 @@
       <c r="G12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>14</v>
+      <c r="H12" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>14</v>
@@ -1452,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>14</v>
@@ -1463,8 +1463,8 @@
       <c r="G13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>14</v>
+      <c r="H13" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>14</v>
@@ -1476,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13" s="20" t="s">
         <v>14</v>
@@ -1519,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>14</v>
@@ -1562,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>14</v>
@@ -1573,8 +1573,8 @@
       <c r="G15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>14</v>
+      <c r="H15" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I15" s="20" t="s">
         <v>14</v>
@@ -1586,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>14</v>
@@ -1617,7 +1617,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>14</v>
@@ -1629,7 +1629,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>14</v>
@@ -1683,8 +1683,8 @@
       <c r="G17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>14</v>
+      <c r="H17" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>14</v>
@@ -1738,8 +1738,8 @@
       <c r="G18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="22" t="s">
-        <v>14</v>
+      <c r="H18" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>14</v>
@@ -1751,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18" s="20" t="s">
         <v>14</v>
@@ -1793,8 +1793,8 @@
       <c r="G19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>14</v>
+      <c r="H19" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>14</v>
@@ -1837,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>14</v>
@@ -1848,8 +1848,8 @@
       <c r="G20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="22" t="s">
-        <v>14</v>
+      <c r="H20" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>14</v>
@@ -1903,8 +1903,8 @@
       <c r="G21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>14</v>
+      <c r="H21" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>14</v>
@@ -1916,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M21" s="20" t="s">
         <v>14</v>
@@ -1947,7 +1947,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>14</v>
@@ -1958,8 +1958,8 @@
       <c r="G22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>14</v>
+      <c r="H22" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>14</v>
@@ -1971,7 +1971,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M22" s="20" t="s">
         <v>14</v>
@@ -2013,8 +2013,8 @@
       <c r="G23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>14</v>
+      <c r="H23" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>14</v>
@@ -2026,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M23" s="20" t="s">
         <v>14</v>
@@ -2068,8 +2068,8 @@
       <c r="G24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="22" t="s">
-        <v>14</v>
+      <c r="H24" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>14</v>
@@ -2112,7 +2112,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>14</v>
@@ -2123,8 +2123,8 @@
       <c r="G25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>14</v>
+      <c r="H25" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>14</v>
@@ -2178,8 +2178,8 @@
       <c r="G26" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>14</v>
+      <c r="H26" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>14</v>
@@ -2233,8 +2233,8 @@
       <c r="G27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>14</v>
+      <c r="H27" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="I27" s="20" t="s">
         <v>14</v>
@@ -2277,7 +2277,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>14</v>
@@ -2288,8 +2288,8 @@
       <c r="G28" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>14</v>
+      <c r="H28" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="I28" s="20" t="s">
         <v>14</v>
@@ -2332,7 +2332,7 @@
         <v>37</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>14</v>
@@ -2343,8 +2343,8 @@
       <c r="G29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="22" t="s">
-        <v>14</v>
+      <c r="H29" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>14</v>
@@ -2398,8 +2398,8 @@
       <c r="G30" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>14</v>
+      <c r="H30" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I30" s="20" t="s">
         <v>14</v>
@@ -2411,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30" s="20" t="s">
         <v>14</v>
@@ -2454,7 +2454,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" s="20" t="s">
         <v>14</v>
@@ -2466,7 +2466,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M31" s="20" t="s">
         <v>14</v>
@@ -2509,7 +2509,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>14</v>
@@ -2552,7 +2552,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>14</v>
@@ -2564,7 +2564,7 @@
         <v>14</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>14</v>
@@ -2607,7 +2607,7 @@
         <v>42</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>14</v>
@@ -2618,8 +2618,8 @@
       <c r="G34" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="22" t="s">
-        <v>14</v>
+      <c r="H34" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I34" s="20" t="s">
         <v>14</v>
@@ -2662,7 +2662,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>14</v>
@@ -2674,7 +2674,7 @@
         <v>14</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" s="20" t="s">
         <v>14</v>
@@ -2740,7 +2740,7 @@
         <v>45</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>14</v>
@@ -2752,7 +2752,7 @@
         <v>14</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" s="20" t="s">
         <v>14</v>
@@ -2795,7 +2795,7 @@
         <v>46</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>14</v>
@@ -2806,8 +2806,8 @@
       <c r="G38" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="22" t="s">
-        <v>14</v>
+      <c r="H38" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I38" s="20" t="s">
         <v>14</v>
@@ -2861,8 +2861,8 @@
       <c r="G39" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="22" t="s">
-        <v>14</v>
+      <c r="H39" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>14</v>
@@ -2874,7 +2874,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M39" s="20" t="s">
         <v>14</v>
@@ -2916,8 +2916,8 @@
       <c r="G40" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="22" t="s">
-        <v>14</v>
+      <c r="H40" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I40" s="20" t="s">
         <v>14</v>
@@ -2960,7 +2960,7 @@
         <v>49</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>14</v>
@@ -2971,8 +2971,8 @@
       <c r="G41" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="22" t="s">
-        <v>14</v>
+      <c r="H41" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I41" s="20" t="s">
         <v>14</v>
@@ -2984,7 +2984,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M41" s="20" t="s">
         <v>14</v>
@@ -3026,8 +3026,8 @@
       <c r="G42" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="22" t="s">
-        <v>14</v>
+      <c r="H42" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I42" s="20" t="s">
         <v>14</v>
@@ -3039,7 +3039,7 @@
         <v>14</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M42" s="20" t="s">
         <v>14</v>
@@ -3081,8 +3081,8 @@
       <c r="G43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="22" t="s">
-        <v>14</v>
+      <c r="H43" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I43" s="20" t="s">
         <v>14</v>
@@ -3094,7 +3094,7 @@
         <v>14</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M43" s="20" t="s">
         <v>14</v>
@@ -3136,8 +3136,8 @@
       <c r="G44" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="22" t="s">
-        <v>14</v>
+      <c r="H44" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I44" s="20" t="s">
         <v>14</v>
@@ -3149,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M44" s="20" t="s">
         <v>14</v>
@@ -3180,7 +3180,7 @@
         <v>53</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>14</v>
@@ -3191,8 +3191,8 @@
       <c r="G45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="22" t="s">
-        <v>14</v>
+      <c r="H45" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I45" s="20" t="s">
         <v>14</v>
@@ -3246,8 +3246,8 @@
       <c r="G46" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="22" t="s">
-        <v>14</v>
+      <c r="H46" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I46" s="20" t="s">
         <v>14</v>
@@ -3259,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M46" s="20" t="s">
         <v>14</v>
@@ -3290,7 +3290,7 @@
         <v>55</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>14</v>
@@ -3301,8 +3301,8 @@
       <c r="G47" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="22" t="s">
-        <v>14</v>
+      <c r="H47" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>14</v>
@@ -3345,7 +3345,7 @@
         <v>56</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>14</v>
@@ -3356,8 +3356,8 @@
       <c r="G48" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="22" t="s">
-        <v>14</v>
+      <c r="H48" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I48" s="20" t="s">
         <v>14</v>
@@ -3369,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M48" s="20" t="s">
         <v>14</v>
@@ -3400,7 +3400,7 @@
         <v>57</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>14</v>
@@ -3411,8 +3411,8 @@
       <c r="G49" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="22" t="s">
-        <v>14</v>
+      <c r="H49" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I49" s="20" t="s">
         <v>14</v>
@@ -3466,8 +3466,8 @@
       <c r="G50" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="22" t="s">
-        <v>14</v>
+      <c r="H50" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I50" s="20" t="s">
         <v>14</v>
@@ -3479,7 +3479,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M50" s="20" t="s">
         <v>14</v>
@@ -3510,7 +3510,7 @@
         <v>59</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>14</v>
@@ -3521,8 +3521,8 @@
       <c r="G51" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="22" t="s">
-        <v>14</v>
+      <c r="H51" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="I51" s="20" t="s">
         <v>14</v>
@@ -3576,8 +3576,8 @@
       <c r="G52" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="22" t="s">
-        <v>14</v>
+      <c r="H52" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="I52" s="20" t="s">
         <v>14</v>
@@ -3589,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M52" s="20" t="s">
         <v>14</v>
@@ -3631,8 +3631,8 @@
       <c r="G53" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="22" t="s">
-        <v>14</v>
+      <c r="H53" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="I53" s="20" t="s">
         <v>14</v>
@@ -3644,7 +3644,7 @@
         <v>14</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M53" s="20" t="s">
         <v>14</v>
@@ -3675,7 +3675,7 @@
         <v>62</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>14</v>
@@ -3686,8 +3686,8 @@
       <c r="G54" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="22" t="s">
-        <v>14</v>
+      <c r="H54" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="I54" s="20" t="s">
         <v>14</v>
@@ -3730,7 +3730,7 @@
         <v>63</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>14</v>
@@ -3741,8 +3741,8 @@
       <c r="G55" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="22" t="s">
-        <v>14</v>
+      <c r="H55" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="I55" s="20" t="s">
         <v>14</v>
@@ -3785,7 +3785,7 @@
         <v>64</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>14</v>
@@ -3796,8 +3796,8 @@
       <c r="G56" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="22" t="s">
-        <v>14</v>
+      <c r="H56" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>14</v>
@@ -3851,8 +3851,8 @@
       <c r="G57" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="22" t="s">
-        <v>14</v>
+      <c r="H57" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I57" s="20" t="s">
         <v>14</v>
@@ -3895,7 +3895,7 @@
         <v>66</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>14</v>
@@ -3906,8 +3906,8 @@
       <c r="G58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="22" t="s">
-        <v>14</v>
+      <c r="H58" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I58" s="20" t="s">
         <v>14</v>
@@ -3955,7 +3955,7 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B36:C36"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:F35 H7:J35 L7:N35 P7:R35 D37:S58">
+  <conditionalFormatting sqref="D7:F35 I7:J35 L7:N35 P7:R35 H7:H11 H13:H35 D37:S58">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"A"</formula>
     </cfRule>
@@ -4017,7 +4017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K35">
+  <conditionalFormatting sqref="K7:K35 H12">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>"A"</formula>
     </cfRule>
@@ -4201,7 +4201,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="H58 C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4228,12 +4228,12 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Auto-Eval-ASI1-ICS-r1.xlsx
+++ b/Auto-Eval-ASI1-ICS-r1.xlsx
@@ -882,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P49" activeCellId="0" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1158,7 +1158,7 @@
         <v>14</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="23" t="s">
         <v>14</v>
@@ -1213,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="23" t="s">
         <v>14</v>
@@ -1268,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="23" t="s">
         <v>14</v>
@@ -1323,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="23" t="s">
         <v>14</v>
@@ -1378,7 +1378,7 @@
         <v>14</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="23" t="s">
         <v>14</v>
@@ -1433,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="23" t="s">
         <v>14</v>
@@ -1488,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="23" t="s">
         <v>14</v>
@@ -1543,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="23" t="s">
         <v>14</v>
@@ -1598,7 +1598,7 @@
         <v>14</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="23" t="s">
         <v>14</v>
@@ -1653,7 +1653,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="23" t="s">
         <v>14</v>
@@ -1708,7 +1708,7 @@
         <v>14</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="23" t="s">
         <v>14</v>
@@ -1763,7 +1763,7 @@
         <v>14</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="23" t="s">
         <v>14</v>
@@ -1818,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="23" t="s">
         <v>14</v>
@@ -1873,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="23" t="s">
         <v>14</v>
@@ -1928,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="23" t="s">
         <v>14</v>
@@ -1983,7 +1983,7 @@
         <v>14</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="23" t="s">
         <v>14</v>
@@ -2038,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="23" t="s">
         <v>14</v>
@@ -2093,7 +2093,7 @@
         <v>14</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="23" t="s">
         <v>14</v>
@@ -2148,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="23" t="s">
         <v>14</v>
@@ -2203,7 +2203,7 @@
         <v>14</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="23" t="s">
         <v>14</v>
@@ -2258,7 +2258,7 @@
         <v>14</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="23" t="s">
         <v>14</v>
@@ -2313,7 +2313,7 @@
         <v>14</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="23" t="s">
         <v>14</v>
@@ -2368,7 +2368,7 @@
         <v>14</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q29" s="23" t="s">
         <v>14</v>
@@ -2423,7 +2423,7 @@
         <v>14</v>
       </c>
       <c r="P30" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q30" s="23" t="s">
         <v>14</v>
@@ -2478,7 +2478,7 @@
         <v>14</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="23" t="s">
         <v>14</v>
@@ -2533,7 +2533,7 @@
         <v>14</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q32" s="23" t="s">
         <v>14</v>
@@ -2588,7 +2588,7 @@
         <v>14</v>
       </c>
       <c r="P33" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q33" s="23" t="s">
         <v>14</v>
@@ -2643,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="P34" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="23" t="s">
         <v>14</v>
@@ -2698,7 +2698,7 @@
         <v>14</v>
       </c>
       <c r="P35" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="23" t="s">
         <v>14</v>
@@ -2776,7 +2776,7 @@
         <v>14</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q37" s="23" t="s">
         <v>14</v>
@@ -2831,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="23" t="s">
         <v>14</v>
@@ -2886,7 +2886,7 @@
         <v>14</v>
       </c>
       <c r="P39" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q39" s="23" t="s">
         <v>14</v>
@@ -2941,7 +2941,7 @@
         <v>14</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q40" s="23" t="s">
         <v>14</v>
@@ -2996,7 +2996,7 @@
         <v>14</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q41" s="23" t="s">
         <v>14</v>
@@ -3051,7 +3051,7 @@
         <v>14</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q42" s="23" t="s">
         <v>14</v>
@@ -3106,7 +3106,7 @@
         <v>14</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="23" t="s">
         <v>14</v>
@@ -3161,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="23" t="s">
         <v>14</v>
@@ -3216,7 +3216,7 @@
         <v>14</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q45" s="23" t="s">
         <v>14</v>
@@ -3271,7 +3271,7 @@
         <v>14</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q46" s="23" t="s">
         <v>14</v>
@@ -3326,7 +3326,7 @@
         <v>14</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q47" s="23" t="s">
         <v>14</v>
@@ -3381,7 +3381,7 @@
         <v>14</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q48" s="23" t="s">
         <v>14</v>
@@ -3436,7 +3436,7 @@
         <v>14</v>
       </c>
       <c r="P49" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q49" s="23" t="s">
         <v>14</v>
@@ -3491,7 +3491,7 @@
         <v>14</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="23" t="s">
         <v>14</v>
@@ -4174,14 +4174,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:S35 D37:S58" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:S35 D37:S58" type="list">
       <formula1>Note</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="46" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="46" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4201,7 +4201,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="H58 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4238,8 +4238,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Auto-Eval-ASI1-ICS-r1.xlsx
+++ b/Auto-Eval-ASI1-ICS-r1.xlsx
@@ -175,6 +175,9 @@
     <t xml:space="preserve">AB</t>
   </si>
   <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Avantages/Inconvénients Web Dynamique</t>
   </si>
   <si>
@@ -317,9 +320,6 @@
   </si>
   <si>
     <t xml:space="preserve">Visualisation de la couverture de Tests via SONAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
   </si>
 </sst>
 </file>
@@ -882,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P49" activeCellId="0" sqref="P49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>14</v>
@@ -1189,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>14</v>
@@ -1244,7 +1244,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>14</v>
@@ -1284,7 +1284,7 @@
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>18</v>
@@ -1299,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="20" t="s">
         <v>13</v>
@@ -1308,7 +1308,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" s="22" t="s">
         <v>13</v>
@@ -1339,7 +1339,7 @@
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>15</v>
@@ -1353,8 +1353,8 @@
       <c r="G11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>15</v>
+      <c r="H11" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>14</v>
@@ -1394,10 +1394,10 @@
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>14</v>
@@ -1408,8 +1408,8 @@
       <c r="G12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>20</v>
+      <c r="H12" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>14</v>
@@ -1421,7 +1421,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" s="20" t="s">
         <v>14</v>
@@ -1433,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="23" t="s">
         <v>14</v>
@@ -1449,7 +1449,7 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>18</v>
@@ -1464,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>14</v>
@@ -1504,7 +1504,7 @@
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>13</v>
@@ -1518,8 +1518,8 @@
       <c r="G14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>15</v>
+      <c r="H14" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>14</v>
@@ -1559,7 +1559,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>18</v>
@@ -1574,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15" s="20" t="s">
         <v>14</v>
@@ -1614,7 +1614,7 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>15</v>
@@ -1628,8 +1628,8 @@
       <c r="G16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>15</v>
+      <c r="H16" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>14</v>
@@ -1669,7 +1669,7 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>13</v>
@@ -1684,7 +1684,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>14</v>
@@ -1724,10 +1724,10 @@
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>14</v>
@@ -1739,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>14</v>
@@ -1779,10 +1779,10 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>14</v>
@@ -1794,7 +1794,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>14</v>
@@ -1806,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" s="20" t="s">
         <v>14</v>
@@ -1834,7 +1834,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>18</v>
@@ -1849,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>14</v>
@@ -1861,7 +1861,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20" s="20" t="s">
         <v>14</v>
@@ -1889,7 +1889,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>13</v>
@@ -1904,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>14</v>
@@ -1944,7 +1944,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>15</v>
@@ -1959,7 +1959,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>14</v>
@@ -1999,7 +1999,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>13</v>
@@ -2014,7 +2014,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>14</v>
@@ -2054,7 +2054,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>13</v>
@@ -2069,7 +2069,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>14</v>
@@ -2109,7 +2109,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>15</v>
@@ -2124,7 +2124,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>14</v>
@@ -2164,10 +2164,10 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>14</v>
@@ -2179,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>14</v>
@@ -2191,7 +2191,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" s="20" t="s">
         <v>14</v>
@@ -2219,10 +2219,10 @@
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>14</v>
@@ -2234,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I27" s="20" t="s">
         <v>14</v>
@@ -2246,7 +2246,7 @@
         <v>14</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M27" s="20" t="s">
         <v>14</v>
@@ -2258,7 +2258,7 @@
         <v>14</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="23" t="s">
         <v>14</v>
@@ -2274,7 +2274,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>18</v>
@@ -2289,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" s="20" t="s">
         <v>14</v>
@@ -2301,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28" s="20" t="s">
         <v>14</v>
@@ -2313,7 +2313,7 @@
         <v>14</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="23" t="s">
         <v>14</v>
@@ -2329,7 +2329,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>18</v>
@@ -2344,7 +2344,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>14</v>
@@ -2384,7 +2384,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>13</v>
@@ -2399,7 +2399,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I30" s="20" t="s">
         <v>14</v>
@@ -2439,7 +2439,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>13</v>
@@ -2453,8 +2453,8 @@
       <c r="G31" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>15</v>
+      <c r="H31" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I31" s="20" t="s">
         <v>14</v>
@@ -2494,7 +2494,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>13</v>
@@ -2508,8 +2508,8 @@
       <c r="G32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="22" t="s">
-        <v>15</v>
+      <c r="H32" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>14</v>
@@ -2521,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M32" s="20" t="s">
         <v>14</v>
@@ -2549,7 +2549,7 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>18</v>
@@ -2563,8 +2563,8 @@
       <c r="G33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="22" t="s">
-        <v>15</v>
+      <c r="H33" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>14</v>
@@ -2576,7 +2576,7 @@
         <v>14</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M33" s="20" t="s">
         <v>14</v>
@@ -2604,7 +2604,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>15</v>
@@ -2619,7 +2619,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I34" s="20" t="s">
         <v>14</v>
@@ -2659,7 +2659,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>15</v>
@@ -2674,7 +2674,7 @@
         <v>14</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I35" s="20" t="s">
         <v>14</v>
@@ -2710,10 +2710,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12"/>
       <c r="B36" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="9"/>
@@ -2737,7 +2737,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>15</v>
@@ -2752,7 +2752,7 @@
         <v>14</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37" s="20" t="s">
         <v>14</v>
@@ -2792,7 +2792,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         <v>14</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I38" s="20" t="s">
         <v>14</v>
@@ -2847,7 +2847,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>13</v>
@@ -2862,7 +2862,7 @@
         <v>14</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>14</v>
@@ -2902,7 +2902,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>13</v>
@@ -2917,7 +2917,7 @@
         <v>14</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I40" s="20" t="s">
         <v>14</v>
@@ -2929,7 +2929,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M40" s="20" t="s">
         <v>14</v>
@@ -2957,7 +2957,7 @@
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>15</v>
@@ -2972,7 +2972,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I41" s="20" t="s">
         <v>14</v>
@@ -3012,7 +3012,7 @@
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>13</v>
@@ -3027,7 +3027,7 @@
         <v>14</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I42" s="20" t="s">
         <v>14</v>
@@ -3067,10 +3067,10 @@
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>14</v>
@@ -3082,7 +3082,7 @@
         <v>14</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I43" s="20" t="s">
         <v>14</v>
@@ -3106,7 +3106,7 @@
         <v>14</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q43" s="23" t="s">
         <v>14</v>
@@ -3122,10 +3122,10 @@
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>14</v>
@@ -3137,7 +3137,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I44" s="20" t="s">
         <v>14</v>
@@ -3161,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q44" s="23" t="s">
         <v>14</v>
@@ -3177,7 +3177,7 @@
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>18</v>
@@ -3192,7 +3192,7 @@
         <v>14</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I45" s="20" t="s">
         <v>14</v>
@@ -3232,7 +3232,7 @@
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>13</v>
@@ -3247,7 +3247,7 @@
         <v>14</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I46" s="20" t="s">
         <v>14</v>
@@ -3287,7 +3287,7 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>18</v>
@@ -3302,7 +3302,7 @@
         <v>14</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>14</v>
@@ -3342,7 +3342,7 @@
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>18</v>
@@ -3357,7 +3357,7 @@
         <v>14</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I48" s="20" t="s">
         <v>14</v>
@@ -3397,7 +3397,7 @@
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>18</v>
@@ -3412,7 +3412,7 @@
         <v>14</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I49" s="20" t="s">
         <v>14</v>
@@ -3452,10 +3452,10 @@
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>14</v>
@@ -3467,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I50" s="20" t="s">
         <v>14</v>
@@ -3491,7 +3491,7 @@
         <v>14</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q50" s="23" t="s">
         <v>14</v>
@@ -3507,7 +3507,7 @@
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>18</v>
@@ -3522,7 +3522,7 @@
         <v>14</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I51" s="20" t="s">
         <v>14</v>
@@ -3534,7 +3534,7 @@
         <v>14</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M51" s="20" t="s">
         <v>14</v>
@@ -3562,10 +3562,10 @@
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>14</v>
@@ -3577,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I52" s="20" t="s">
         <v>14</v>
@@ -3617,10 +3617,10 @@
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>14</v>
@@ -3632,7 +3632,7 @@
         <v>14</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53" s="20" t="s">
         <v>14</v>
@@ -3672,7 +3672,7 @@
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         <v>14</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I54" s="20" t="s">
         <v>14</v>
@@ -3699,7 +3699,7 @@
         <v>14</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M54" s="20" t="s">
         <v>14</v>
@@ -3727,7 +3727,7 @@
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>15</v>
@@ -3742,7 +3742,7 @@
         <v>14</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I55" s="20" t="s">
         <v>14</v>
@@ -3754,7 +3754,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M55" s="20" t="s">
         <v>14</v>
@@ -3782,7 +3782,7 @@
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>18</v>
@@ -3797,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I56" s="20" t="s">
         <v>14</v>
@@ -3809,7 +3809,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M56" s="20" t="s">
         <v>14</v>
@@ -3837,7 +3837,7 @@
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>13</v>
@@ -3852,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I57" s="20" t="s">
         <v>14</v>
@@ -3864,7 +3864,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M57" s="20" t="s">
         <v>14</v>
@@ -3892,7 +3892,7 @@
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>18</v>
@@ -3907,7 +3907,7 @@
         <v>14</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I58" s="20" t="s">
         <v>14</v>
@@ -3919,7 +3919,7 @@
         <v>14</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M58" s="20" t="s">
         <v>14</v>
@@ -3955,7 +3955,7 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B36:C36"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:F35 I7:J35 L7:N35 P7:R35 H7:H11 H13:H35 D37:S58">
+  <conditionalFormatting sqref="D7:F35 I7:J35 L7:N35 P7:R35 H7:H10 D37:S58 H12:H35">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"A"</formula>
     </cfRule>
@@ -4017,7 +4017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K35 H12">
+  <conditionalFormatting sqref="K7:K35 H11">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>"A"</formula>
     </cfRule>
@@ -4174,14 +4174,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:S35 D37:S58" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:S35 D37:S58" type="list">
       <formula1>Note</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="46" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="46" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4201,7 +4201,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="H23 C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4213,12 +4213,12 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,8 +4238,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Auto-Eval-ASI1-ICS-r1.xlsx
+++ b/Auto-Eval-ASI1-ICS-r1.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C1941C-973F-414D-BAB4-11F07CF4F86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoalbouy/ArchiLogiciel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199DBAE4-8E91-D745-B45B-3B05AF5533C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28980" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -335,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -463,19 +468,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,7 +798,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1092,47 +1097,47 @@
   <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="D1" s="18" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="15" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="16" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1216,18 +1221,20 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="14.85">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="8">
         <v>0.25</v>
       </c>
       <c r="E4" s="8">
         <v>0.2</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>0.27</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="10">
         <v>0.25</v>
@@ -1235,7 +1242,9 @@
       <c r="I4" s="8">
         <v>0.3</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8">
+        <v>0.27</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="10">
         <v>0.25</v>
@@ -1243,7 +1252,9 @@
       <c r="M4" s="8">
         <v>0.2</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="8">
+        <v>0.19</v>
+      </c>
       <c r="O4" s="9"/>
       <c r="P4" s="8">
         <v>0.25</v>
@@ -1251,7 +1262,9 @@
       <c r="Q4" s="8">
         <v>0.3</v>
       </c>
-      <c r="R4" s="8"/>
+      <c r="R4" s="8">
+        <v>0.27</v>
+      </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8">
         <f>D4+H4+L4+P4</f>
@@ -1263,19 +1276,19 @@
       </c>
       <c r="V4" s="8">
         <f>F4+J4+N4+R4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="8">
         <f>G4+K4+O4+S4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1297,12 +1310,12 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1324,7 +1337,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" ht="14.85">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="11" t="s">
@@ -1379,7 +1392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="22.35">
+    <row r="8" spans="1:23" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="11" t="s">
@@ -1434,7 +1447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.85">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="11" t="s">
@@ -1489,7 +1502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="22.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="11" t="s">
@@ -1544,7 +1557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.85">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="11" t="s">
@@ -1599,7 +1612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.85">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="11" t="s">
@@ -1654,7 +1667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.85">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="11" t="s">
@@ -1709,7 +1722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.85">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="11" t="s">
@@ -1764,7 +1777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.85">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="11" t="s">
@@ -1819,7 +1832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.85">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="11" t="s">
@@ -1874,7 +1887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="14.85">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="11" t="s">
@@ -1929,7 +1942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="14.85">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="11" t="s">
@@ -1984,7 +1997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14.85">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="11" t="s">
@@ -2039,7 +2052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="14.85">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="11" t="s">
@@ -2094,7 +2107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14.85">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="11" t="s">
@@ -2149,7 +2162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14.85">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="11" t="s">
@@ -2204,7 +2217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14.85">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="11" t="s">
@@ -2259,7 +2272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="14.85">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="11" t="s">
@@ -2314,7 +2327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="14.85">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="11" t="s">
@@ -2369,7 +2382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.85">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="11" t="s">
@@ -2424,7 +2437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="14.85">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="11" t="s">
@@ -2479,7 +2492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="14.85">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="11" t="s">
@@ -2534,7 +2547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="14.85">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="11" t="s">
@@ -2589,7 +2602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14.85">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="11" t="s">
@@ -2644,7 +2657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="14.85">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="11" t="s">
@@ -2699,7 +2712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="14.85">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="11" t="s">
@@ -2754,7 +2767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="14.85">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="11" t="s">
@@ -2809,7 +2822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="14.85">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="11" t="s">
@@ -2864,7 +2877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="14.85">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="11" t="s">
@@ -2919,12 +2932,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="13.9">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2942,7 +2955,7 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
     </row>
-    <row r="37" spans="1:19" ht="22.35">
+    <row r="37" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="11" t="s">
@@ -2997,7 +3010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="22.35">
+    <row r="38" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="11" t="s">
@@ -3052,7 +3065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="14.85">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="11" t="s">
@@ -3107,7 +3120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="22.35">
+    <row r="40" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="11" t="s">
@@ -3162,7 +3175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="14.85">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="11" t="s">
@@ -3217,7 +3230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="14.85">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="11" t="s">
@@ -3272,7 +3285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="14.85">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="11" t="s">
@@ -3327,7 +3340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="22.35">
+    <row r="44" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="11" t="s">
@@ -3382,7 +3395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="14.85">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="11" t="s">
@@ -3437,7 +3450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="22.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="11" t="s">
@@ -3492,7 +3505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="14.85">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="11" t="s">
@@ -3547,7 +3560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="14.85">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="11" t="s">
@@ -3602,7 +3615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="14.85">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="11" t="s">
@@ -3657,7 +3670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="22.35">
+    <row r="50" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="11" t="s">
@@ -3712,7 +3725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14.85">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="11" t="s">
@@ -3767,7 +3780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="14.85">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="11" t="s">
@@ -3822,7 +3835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="22.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="11" t="s">
@@ -3877,7 +3890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="14.85">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="11" t="s">
@@ -3932,7 +3945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="22.35">
+    <row r="55" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="11" t="s">
@@ -3987,7 +4000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="22.35">
+    <row r="56" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="11" t="s">
@@ -4042,7 +4055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="22.35">
+    <row r="57" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="11" t="s">
@@ -4097,7 +4110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="22.35">
+    <row r="58" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="11" t="s">
@@ -4154,15 +4167,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:F35 I7:J35 P7:R35 H7:H10 H12:H35 L7:N35 D37:S58">
     <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
@@ -4352,7 +4365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:F4 H4:J4 L4:N4 P4:R4">
+  <conditionalFormatting sqref="L4:N4 D4:F4 H4:J4 P4:R4">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4405,34 +4418,34 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
